--- a/medicine/Mort/Cimetière_nouveau_de_Montreuil/Cimetière_nouveau_de_Montreuil.xlsx
+++ b/medicine/Mort/Cimetière_nouveau_de_Montreuil/Cimetière_nouveau_de_Montreuil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_nouveau_de_Montreuil</t>
+          <t>Cimetière_nouveau_de_Montreuil</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière nouveau de Montreuil, est un cimetière se trouvant avenue Jean-Moulin à Montreuil en Seine-Saint-Denis[1], et est le produit de l'agrandissement du cimetière communal de Montreuil, dit cimetière ancien[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière nouveau de Montreuil, est un cimetière se trouvant avenue Jean-Moulin à Montreuil en Seine-Saint-Denis, et est le produit de l'agrandissement du cimetière communal de Montreuil, dit cimetière ancien.
 La ville de Montreuil est membre du Syndicat intercommunal funéraire de la région parisienne (SIFUREP).
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_nouveau_de_Montreuil</t>
+          <t>Cimetière_nouveau_de_Montreuil</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nouveau cimetière communal de Montreuil fait partie des 14 % des cimetières récents membres du SIFUREP créés après 1950.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_nouveau_de_Montreuil</t>
+          <t>Cimetière_nouveau_de_Montreuil</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les pratiques funéraires observées de 2003 à 2008 montrent une part de 90 % d'inhumations. Parmi elles, 54 % se font en caveaux et 46 % en pleine terre. Pour les 10% de crémations, les cendres sont conservées en urnes dans 95% des cas, et pour 5 % dispersées.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_nouveau_de_Montreuil</t>
+          <t>Cimetière_nouveau_de_Montreuil</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,6 +591,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
